--- a/doc/新建 XLSX 工作表.xlsx
+++ b/doc/新建 XLSX 工作表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
   <si>
     <t>平台</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>店铺用户信用度管理</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID 名字 联系电话 店面图片  介绍  营业开始时间 营业结束时间  店长ID 省市区 详细地址 经度 纬度 店铺分类（1饭店 2 酒店 3快餐店 4 食堂） 经营类型（1烧烤香锅 2 休闲茶饮 3中餐地方 3.1 鲁菜）级别（1 总店 2分店） 经营状态（1营业中 2 暂停营业 3即将开业） 店铺状态 （正常 ，下线，欠费） </t>
   </si>
   <si>
     <t>留言</t>
@@ -206,15 +209,127 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -228,66 +343,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -296,13 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -311,36 +359,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -348,21 +366,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -373,13 +376,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,25 +502,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,24 +550,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -446,114 +557,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -564,32 +567,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -612,7 +589,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,20 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,6 +638,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -672,10 +675,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -684,142 +687,145 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1169,13 +1175,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="3" max="3" width="24.425" customWidth="1"/>
+    <col min="4" max="4" width="8.94166666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.1916666666667" customWidth="1"/>
+    <col min="6" max="6" width="117.3" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -1423,7 +1435,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" ht="40.5" spans="1:6">
       <c r="A34" s="1"/>
       <c r="C34" t="s">
         <v>40</v>
@@ -1431,17 +1443,20 @@
       <c r="E34" t="s">
         <v>27</v>
       </c>
+      <c r="F34" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -1451,36 +1466,36 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1488,7 +1503,7 @@
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1496,7 +1511,7 @@
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1506,55 +1521,55 @@
     <row r="45" spans="1:2">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1"/>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1"/>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1"/>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
